--- a/Kings Casino User Database/Kings Casino - User Database.xlsx
+++ b/Kings Casino User Database/Kings Casino - User Database.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daryl Atienza\Desktop\RPA\RPA.QA.FINAL PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\Work\QA Consulting\Training Notes\Project Final\Kings Casino User Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1D6598-F942-4101-B573-65D479EEE852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D2D73F-029F-4184-B26F-EAF86A22FA20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B2960FA7-55C5-4140-B403-93D9D63BED3A}"/>
+    <workbookView xWindow="7275" yWindow="2820" windowWidth="14820" windowHeight="7500" xr2:uid="{B2960FA7-55C5-4140-B403-93D9D63BED3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -553,7 +550,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,6 +596,9 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>48534</v>
+      </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -620,8 +620,14 @@
       <c r="H2">
         <v>123</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3483423</v>
+      </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -643,8 +649,14 @@
       <c r="H3">
         <v>123</v>
       </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>486343</v>
+      </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -666,8 +678,14 @@
       <c r="H4">
         <v>123</v>
       </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>153485</v>
+      </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -689,8 +707,14 @@
       <c r="H5">
         <v>123</v>
       </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8646</v>
+      </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -712,8 +736,14 @@
       <c r="H6">
         <v>123</v>
       </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1237485</v>
+      </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -735,8 +765,14 @@
       <c r="H7">
         <v>123</v>
       </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>486</v>
+      </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -758,8 +794,14 @@
       <c r="H8">
         <v>123</v>
       </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8643</v>
+      </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -781,8 +823,14 @@
       <c r="H9">
         <v>123</v>
       </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>34856341</v>
+      </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -804,8 +852,14 @@
       <c r="H10">
         <v>123</v>
       </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>748641</v>
+      </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -826,6 +880,9 @@
       </c>
       <c r="H11">
         <v>123</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Kings Casino User Database/Kings Casino - User Database.xlsx
+++ b/Kings Casino User Database/Kings Casino - User Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\Work\QA Consulting\Training Notes\Project Final\Kings Casino User Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daryl Atienza\Desktop\RPA\GIT.RPA.FINAL PROJECT\GroupProject\Kings Casino User Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D2D73F-029F-4184-B26F-EAF86A22FA20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FC2635-9ABD-479D-9AB8-53DC6811A742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="2820" windowWidth="14820" windowHeight="7500" xr2:uid="{B2960FA7-55C5-4140-B403-93D9D63BED3A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B2960FA7-55C5-4140-B403-93D9D63BED3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Kings Casino User Database/Kings Casino - User Database.xlsx
+++ b/Kings Casino User Database/Kings Casino - User Database.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daryl Atienza\Desktop\RPA\GIT.RPA.FINAL PROJECT\GroupProject\Kings Casino User Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FC2635-9ABD-479D-9AB8-53DC6811A742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1DB3D6-D8D4-46B7-A526-1AE844370C60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B2960FA7-55C5-4140-B403-93D9D63BED3A}"/>
+    <workbookView xWindow="3825" yWindow="1500" windowWidth="15375" windowHeight="7875" xr2:uid="{B2960FA7-55C5-4140-B403-93D9D63BED3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
   <si>
     <t>Unique ID</t>
   </si>
@@ -51,140 +52,140 @@
     <t>Sort Code</t>
   </si>
   <si>
+    <t>Times Won</t>
+  </si>
+  <si>
+    <t>Dillon</t>
+  </si>
+  <si>
+    <t>Drew</t>
+  </si>
+  <si>
+    <t>Tamela</t>
+  </si>
+  <si>
+    <t>Cristina</t>
+  </si>
+  <si>
+    <t>Cody</t>
+  </si>
+  <si>
+    <t>Risa</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>Sarai</t>
+  </si>
+  <si>
+    <t>Ardelle</t>
+  </si>
+  <si>
+    <t>Tisa</t>
+  </si>
+  <si>
+    <t>Rosena</t>
+  </si>
+  <si>
+    <t>Schroeder</t>
+  </si>
+  <si>
+    <t>Belanger</t>
+  </si>
+  <si>
+    <t>Pham</t>
+  </si>
+  <si>
+    <t>Browne</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Buchanan</t>
+  </si>
+  <si>
+    <t>078 4907 2140</t>
+  </si>
+  <si>
+    <t>078 6390 8539</t>
+  </si>
+  <si>
+    <t>079 7440 9265</t>
+  </si>
+  <si>
+    <t>070 6451 7126</t>
+  </si>
+  <si>
+    <t>078 5886 8359</t>
+  </si>
+  <si>
+    <t>070 4083 4144</t>
+  </si>
+  <si>
+    <t>078 3307 6428</t>
+  </si>
+  <si>
+    <t>070 1216 8621</t>
+  </si>
+  <si>
+    <t>078 8450 2713</t>
+  </si>
+  <si>
+    <t>kingscasinocustomer+9@gmail.com</t>
+  </si>
+  <si>
+    <t>kingscasinocustomer+8@gmail.com</t>
+  </si>
+  <si>
+    <t>kingscasinocustomer+2@gmail.com</t>
+  </si>
+  <si>
+    <t>kingscasinocustomer+4@gmail.com</t>
+  </si>
+  <si>
+    <t>kingscasinocustomer+3@gmail.com</t>
+  </si>
+  <si>
+    <t>kingscasinocustomer+6@gmail.com</t>
+  </si>
+  <si>
+    <t>kingscasinocustomer+7@gmail.com</t>
+  </si>
+  <si>
+    <t>kingscasinocustomer+5@gmail.com</t>
+  </si>
+  <si>
+    <t>kingscasinocustomer+10@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Account Number </t>
   </si>
   <si>
     <t xml:space="preserve">CVC </t>
   </si>
   <si>
-    <t>Times Won</t>
-  </si>
-  <si>
-    <t>Dillon</t>
-  </si>
-  <si>
-    <t>Drew</t>
-  </si>
-  <si>
     <t>Piedad</t>
   </si>
   <si>
-    <t>Tamela</t>
-  </si>
-  <si>
-    <t>Cristina</t>
-  </si>
-  <si>
-    <t>Cody</t>
-  </si>
-  <si>
-    <t>Risa</t>
-  </si>
-  <si>
-    <t>Alvaro</t>
-  </si>
-  <si>
-    <t>Sarai</t>
-  </si>
-  <si>
-    <t>Ardelle</t>
-  </si>
-  <si>
-    <t>Tisa</t>
-  </si>
-  <si>
-    <t>Rosena</t>
-  </si>
-  <si>
     <t>Sizemore</t>
   </si>
   <si>
-    <t>Schroeder</t>
-  </si>
-  <si>
-    <t>Belanger</t>
-  </si>
-  <si>
-    <t>Pham</t>
-  </si>
-  <si>
-    <t>Browne</t>
-  </si>
-  <si>
-    <t>Nguyen</t>
-  </si>
-  <si>
-    <t>Walker</t>
-  </si>
-  <si>
-    <t>Buchanan</t>
+    <t>kingscasinocustomer+1@gmail.com</t>
   </si>
   <si>
     <t>070 3093 6767</t>
-  </si>
-  <si>
-    <t>078 4907 2140</t>
-  </si>
-  <si>
-    <t>078 6390 8539</t>
-  </si>
-  <si>
-    <t>079 7440 9265</t>
-  </si>
-  <si>
-    <t>070 6451 7126</t>
-  </si>
-  <si>
-    <t>078 5886 8359</t>
-  </si>
-  <si>
-    <t>070 4083 4144</t>
-  </si>
-  <si>
-    <t>078 3307 6428</t>
-  </si>
-  <si>
-    <t>070 1216 8621</t>
-  </si>
-  <si>
-    <t>078 8450 2713</t>
-  </si>
-  <si>
-    <t>kingscasinocustomer+1@gmail.com</t>
-  </si>
-  <si>
-    <t>kingscasinocustomer+9@gmail.com</t>
-  </si>
-  <si>
-    <t>kingscasinocustomer+8@gmail.com</t>
-  </si>
-  <si>
-    <t>kingscasinocustomer+2@gmail.com</t>
-  </si>
-  <si>
-    <t>kingscasinocustomer+4@gmail.com</t>
-  </si>
-  <si>
-    <t>kingscasinocustomer+3@gmail.com</t>
-  </si>
-  <si>
-    <t>kingscasinocustomer+6@gmail.com</t>
-  </si>
-  <si>
-    <t>kingscasinocustomer+7@gmail.com</t>
-  </si>
-  <si>
-    <t>kingscasinocustomer+5@gmail.com</t>
-  </si>
-  <si>
-    <t>kingscasinocustomer+10@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +203,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,8 +238,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -550,12 +558,12 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
@@ -567,337 +575,683 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>48534</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>31510604</v>
+      </c>
+      <c r="H2" s="2">
+        <v>123</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3483423</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>902127</v>
+      </c>
+      <c r="G3" s="2">
+        <v>29823529</v>
+      </c>
+      <c r="H3" s="2">
+        <v>123</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>486343</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2">
+        <v>800551</v>
+      </c>
+      <c r="G4" s="2">
+        <v>813796</v>
+      </c>
+      <c r="H4" s="2">
+        <v>123</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>153485</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2">
+        <v>200052</v>
+      </c>
+      <c r="G5" s="2">
+        <v>75849855</v>
+      </c>
+      <c r="H5" s="2">
+        <v>123</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>8646</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2">
+        <v>185008</v>
+      </c>
+      <c r="G6" s="2">
+        <v>12098709</v>
+      </c>
+      <c r="H6" s="2">
+        <v>123</v>
+      </c>
+      <c r="I6" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>48534</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1237485</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2">
+        <v>826632</v>
+      </c>
+      <c r="G7" s="2">
+        <v>20400952</v>
+      </c>
+      <c r="H7" s="2">
+        <v>123</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>486</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="1">
-        <v>100000</v>
-      </c>
-      <c r="G2">
-        <v>31510604</v>
-      </c>
-      <c r="H2">
-        <v>123</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3483423</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2">
+        <v>400515</v>
+      </c>
+      <c r="G8" s="2">
+        <v>12345674</v>
+      </c>
+      <c r="H8" s="2">
+        <v>123</v>
+      </c>
+      <c r="I8" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8643</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2">
+        <v>309493</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1273801</v>
+      </c>
+      <c r="H9" s="2">
+        <v>123</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>34856341</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>600920</v>
+      </c>
+      <c r="G10" s="2">
+        <v>67037135</v>
+      </c>
+      <c r="H10" s="2">
+        <v>123</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>748641</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1">
-        <v>902127</v>
-      </c>
-      <c r="G3">
-        <v>29823529</v>
-      </c>
-      <c r="H3">
-        <v>123</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>486343</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1">
-        <v>800551</v>
-      </c>
-      <c r="G4">
-        <v>813796</v>
-      </c>
-      <c r="H4">
-        <v>123</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>153485</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1">
-        <v>200052</v>
-      </c>
-      <c r="G5">
-        <v>75849855</v>
-      </c>
-      <c r="H5">
-        <v>123</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>8646</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1">
-        <v>185008</v>
-      </c>
-      <c r="G6">
-        <v>12098709</v>
-      </c>
-      <c r="H6">
-        <v>123</v>
-      </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1237485</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1">
-        <v>826632</v>
-      </c>
-      <c r="G7">
-        <v>20400952</v>
-      </c>
-      <c r="H7">
-        <v>123</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>486</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1">
-        <v>400515</v>
-      </c>
-      <c r="G8">
-        <v>12345674</v>
-      </c>
-      <c r="H8">
-        <v>123</v>
-      </c>
-      <c r="I8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8643</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1">
-        <v>309493</v>
-      </c>
-      <c r="G9">
-        <v>1273801</v>
-      </c>
-      <c r="H9">
-        <v>123</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>34856341</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1">
-        <v>600920</v>
-      </c>
-      <c r="G10">
-        <v>67037135</v>
-      </c>
-      <c r="H10">
-        <v>123</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>748641</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>70116</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>10909132</v>
       </c>
-      <c r="H11">
-        <v>123</v>
-      </c>
-      <c r="I11">
+      <c r="H11" s="2">
+        <v>123</v>
+      </c>
+      <c r="I11" s="2">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{875190AD-D682-4AC5-B8C1-37461CA86A43}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{3E5E0951-2A83-4656-B026-F701410F05CE}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{11C5A33B-3958-4BC0-9808-BAC12F8F5C56}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{66F65592-506F-4264-B1F4-AEE5497586BE}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{1AC80E3D-CE67-4211-AC57-515629541F01}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{5C96ACCF-B479-4C11-8F85-2304E382D961}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{73D3ECCB-6681-4363-810F-0D38DDE4F00F}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{AEFD4024-4F5B-46F0-A5FD-79B5A352A5F9}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{FDB6E5C0-631F-4597-83F4-D7E86F460C43}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{3308CB63-4D40-4225-B2FA-E1DE7CC778A4}"/>
+    <hyperlink ref="D2" r:id="rId1" display="mailto:kingscasinocustomer+1@gmail.com" xr:uid="{BBB7B85D-3910-4B2E-802A-B8BE6D5619FA}"/>
+    <hyperlink ref="D3" r:id="rId2" display="mailto:kingscasinocustomer+2@gmail.com" xr:uid="{F81F8E4E-9EAA-47AC-BA6E-B37560F4CB5E}"/>
+    <hyperlink ref="D4" r:id="rId3" display="mailto:kingscasinocustomer+3@gmail.com" xr:uid="{DED2AE15-4E45-4307-8AEA-89681620FA1F}"/>
+    <hyperlink ref="D5" r:id="rId4" display="mailto:kingscasinocustomer+4@gmail.com" xr:uid="{C22EB12C-888F-457B-95C8-A57ABBA67F47}"/>
+    <hyperlink ref="D6" r:id="rId5" display="mailto:kingscasinocustomer+5@gmail.com" xr:uid="{25FC673B-0CDA-4FFF-B29C-0A99509A014E}"/>
+    <hyperlink ref="D7" r:id="rId6" display="mailto:kingscasinocustomer+6@gmail.com" xr:uid="{B295353C-4DBD-4DEE-A53F-32EB10E12885}"/>
+    <hyperlink ref="D8" r:id="rId7" display="mailto:kingscasinocustomer+7@gmail.com" xr:uid="{95F52745-F9D3-42DC-A736-07D5F69D78C2}"/>
+    <hyperlink ref="D9" r:id="rId8" display="mailto:kingscasinocustomer+8@gmail.com" xr:uid="{4FF3E294-E7B1-4704-A305-01DCA13FE402}"/>
+    <hyperlink ref="D10" r:id="rId9" display="mailto:kingscasinocustomer+9@gmail.com" xr:uid="{48A19A47-D71A-4D24-BD86-28D9A8056AA4}"/>
+    <hyperlink ref="D11" r:id="rId10" display="mailto:kingscasinocustomer+10@gmail.com" xr:uid="{68935834-9A11-4AFD-9EC3-02505E706DC4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7EBC78-833E-4B27-A606-12ED99BDA82E}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>48534</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>31510604</v>
+      </c>
+      <c r="H2" s="2">
+        <v>123</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3483423</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>902127</v>
+      </c>
+      <c r="G3" s="2">
+        <v>29823529</v>
+      </c>
+      <c r="H3" s="2">
+        <v>123</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>486343</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2">
+        <v>800551</v>
+      </c>
+      <c r="G4" s="2">
+        <v>813796</v>
+      </c>
+      <c r="H4" s="2">
+        <v>123</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>153485</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2">
+        <v>200052</v>
+      </c>
+      <c r="G5" s="2">
+        <v>75849855</v>
+      </c>
+      <c r="H5" s="2">
+        <v>123</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>8646</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2">
+        <v>185008</v>
+      </c>
+      <c r="G6" s="2">
+        <v>12098709</v>
+      </c>
+      <c r="H6" s="2">
+        <v>123</v>
+      </c>
+      <c r="I6" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1237485</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2">
+        <v>826632</v>
+      </c>
+      <c r="G7" s="2">
+        <v>20400952</v>
+      </c>
+      <c r="H7" s="2">
+        <v>123</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>486</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2">
+        <v>400515</v>
+      </c>
+      <c r="G8" s="2">
+        <v>12345674</v>
+      </c>
+      <c r="H8" s="2">
+        <v>123</v>
+      </c>
+      <c r="I8" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8643</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2">
+        <v>309493</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1273801</v>
+      </c>
+      <c r="H9" s="2">
+        <v>123</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>34856341</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>600920</v>
+      </c>
+      <c r="G10" s="2">
+        <v>67037135</v>
+      </c>
+      <c r="H10" s="2">
+        <v>123</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>748641</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2">
+        <v>70116</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10909132</v>
+      </c>
+      <c r="H11" s="2">
+        <v>123</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="mailto:kingscasinocustomer+1@gmail.com" xr:uid="{101FE189-EF14-45BE-91F2-2678DAC27002}"/>
+    <hyperlink ref="D3" r:id="rId2" display="mailto:kingscasinocustomer+2@gmail.com" xr:uid="{90BFF322-2A24-49C7-BD52-C41D3DC70D4A}"/>
+    <hyperlink ref="D4" r:id="rId3" display="mailto:kingscasinocustomer+3@gmail.com" xr:uid="{93E6B3FF-D40D-41C4-A117-32CAFDA5B98B}"/>
+    <hyperlink ref="D5" r:id="rId4" display="mailto:kingscasinocustomer+4@gmail.com" xr:uid="{7041F67B-DD3E-4F3D-82DB-1026425B44D0}"/>
+    <hyperlink ref="D6" r:id="rId5" display="mailto:kingscasinocustomer+5@gmail.com" xr:uid="{573C2A69-04C7-4BF6-9663-F4DB2DAD1536}"/>
+    <hyperlink ref="D7" r:id="rId6" display="mailto:kingscasinocustomer+6@gmail.com" xr:uid="{200CE9AA-91C1-4B63-9C23-43CDE0F598AC}"/>
+    <hyperlink ref="D8" r:id="rId7" display="mailto:kingscasinocustomer+7@gmail.com" xr:uid="{73D20E36-B9A0-4203-97B0-4F82E0722DE4}"/>
+    <hyperlink ref="D9" r:id="rId8" display="mailto:kingscasinocustomer+8@gmail.com" xr:uid="{958BACC1-AB9E-4ED4-99D6-3E4F46B5AC55}"/>
+    <hyperlink ref="D10" r:id="rId9" display="mailto:kingscasinocustomer+9@gmail.com" xr:uid="{7C62F1EF-6BFE-4427-89F8-A2E76F28A149}"/>
+    <hyperlink ref="D11" r:id="rId10" display="mailto:kingscasinocustomer+10@gmail.com" xr:uid="{FC352BD5-BA95-4AFD-9EC0-BE789A1149B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
